--- a/part1/portainer_vulns_itog.xlsx
+++ b/part1/portainer_vulns_itog.xlsx
@@ -93,8 +93,8 @@
     <t xml:space="preserve">CRITICAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвимость не применима по причине того, что Portainer хоть и использует go-git
-скачивания зависимостей, однако у злоумышленика и у пользователей нет возможности  на них влиять.</t>
+    <t xml:space="preserve">Код не достижим по причине того, что Portainer хоть и использует go-git, для
+скачивания зависимостей c git, однако у нарушителя нет возможности вызвать git функционал напрямую из portainer.</t>
   </si>
   <si>
     <t xml:space="preserve">CVE-2025-21614</t>
@@ -103,8 +103,8 @@
     <t xml:space="preserve">HIGH</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвимость не применима по причине того, что Portainer хоть и использует go-git
-скачивания зависимостей происходит из открытых источников.</t>
+    <t xml:space="preserve">Уязвимость не применима по причине того, что Portainer хоть и использует go-git,
+скачивание зависимостей происходит из открытых источников.</t>
   </si>
   <si>
     <t xml:space="preserve">github.com/golang-jwt/jwt/v4</t>
@@ -122,31 +122,31 @@
     <t xml:space="preserve">Confirm</t>
   </si>
   <si>
-    <t xml:space="preserve">Неправельная обработка токенов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уязвимость присутсвует, возникает по прчине не корректной работы функции ParseWithClaims, 
-в следвие чего у клиента может присутвовать неправельная обработка токенов. Однако не сильно кретична для функцианирования сервиса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Обновите библиотеку golang-jwt/jwt до версии 4.5.1 или новее (нерекомендуеться, так как она может быть не совместима);
+    <t xml:space="preserve">Неправильная обработка токенов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уязвимость присутствует, возникает по причине не корректной работы функции ParseWithClaims, 
+в следствие чего у клиента может присутствовать неправильная обработка токенов. Однако не сильно критична для функционирования сервиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Обновите библиотеку golang-jwt/jwt до версии 4.5.1 или новее (не рекомендуется, так как она может быть не совместима);
 - Проверьте код на предмет использования ParseWithClaims и убедитесь, что все ошибки обрабатываются корректно, особенно при использовании errors.Is.</t>
   </si>
   <si>
     <t xml:space="preserve">CVE-2025-30204</t>
   </si>
   <si>
-    <t xml:space="preserve">- Черезмерное выдедление памяти;
+    <t xml:space="preserve">- Черезмерное выделение памяти;
 - Возможность для DoS атаки</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвмиость присутсвует и являеться причиной атаки. Уязвимость заключаеться в неправельной обработке
- Токена от клиента, что может привести к DoS атаки.</t>
+    <t xml:space="preserve">Уязвимость присутствует и является причиной атаки. Уязвимость заключается в неправильной обработке
+ токена от клиента, что может привести к DoS атаке.</t>
   </si>
   <si>
     <t xml:space="preserve">- Обновите библиотеку golang-jwt/jwt до версии 4.5.2 или новее;
-- Подтянуть испрвления из патчей bf316c48 и 0951d184
-- Добавить проверки на, корректность расположения точек в JWT токене перед использованием функции parse.ParseUnverified</t>
+- Подтянуть исправления из патчей bf316c48 и 0951d184
+- Добавить проверки на корректность расположения точек в JWT токене перед использованием функции parse.ParseUnverified</t>
   </si>
   <si>
     <t xml:space="preserve">github.com/gorilla/csrf</t>
@@ -158,15 +158,15 @@
     <t xml:space="preserve">github.com/gorilla/csrf@v1.7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">- Возможность проводить атаки CSRF на поддаменах;
-- Являеться возможностью расширить привилегии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уязвимость присутсвует и являеться способ атакующему расширить зону влияния, однако не являеться началом атаки. </t>
+    <t xml:space="preserve">- Возможность проводить атаки CSRF на поддоменах;
+- Является возможностью расширить привилегии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уязвимость присутствует и является способ атакующему расширить зону влияния, однако не является началом атаки. </t>
   </si>
   <si>
     <t xml:space="preserve">- Обновите библиотеку gorilla/csrf до версии 1.7.2 или новее;
-- Подтянуть испрвления из патча 9dd6af1f ;</t>
+- Подтянуть исправления из патча 9dd6af1f ;</t>
   </si>
   <si>
     <t xml:space="preserve">golang.org/x/crypto</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">Not Applicable</t>
   </si>
   <si>
-    <t xml:space="preserve">Код не достежим, так как являеться частью ssh, однако portainer ее не использует.</t>
+    <t xml:space="preserve">Код не достижим, так как является частью ssh сервера, однако portainer ее не использует.</t>
   </si>
   <si>
     <t xml:space="preserve">golang.org/x/crypto@v0.27.0</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">golang.org/x/net@v0.23.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Код не достежим, так как находиться в клиентской части обработки IPv6 прокси</t>
+    <t xml:space="preserve">Код не достижим, так как находиться в клиентской части обработки IPv6 прокси</t>
   </si>
   <si>
     <t xml:space="preserve">golang.org/x/net@v0.26.0</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">CVE-2025-22872</t>
   </si>
   <si>
-    <t xml:space="preserve">Код недостежим, так как влияет на обработку HTML страниц и постройку DOM у клиента</t>
+    <t xml:space="preserve">Код недостижим, так как влияет на обработку HTML страниц и постройку DOM у клиента</t>
   </si>
   <si>
     <t xml:space="preserve">stdlib</t>
@@ -223,8 +223,8 @@
     <t xml:space="preserve">stdlib@v1.21.13</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвимость не применима, так как являеться недочетом выполнения кода на go, что может привести к падению программы, 
-из-за глубоковложенных литералов,  однако код много раз отлажен и не приводит к данной ошибке.</t>
+    <t xml:space="preserve">Уязвимость не применима, так как является недочетом выполнения кода на go, что может привести к падению программы, 
+из-за глубоко вложенных литералов,  однако код много раз отлажен и не приводит к данной ошибке.</t>
   </si>
   <si>
     <t xml:space="preserve">stdlib@v1.22.6</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">CVE-2024-34156</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвимость не применима, так как являеться недочетом выполнения кода на go, что может привести к падению программы, 
+    <t xml:space="preserve">Уязвимость не применима, так как является недочетом выполнения кода на go, что может привести к падению программы, 
 из-за сложных структур,  однако код много раз отлажен и не приводит к данной ошибке.</t>
   </si>
   <si>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">CVE-2024-45336</t>
   </si>
   <si>
-    <t xml:space="preserve">Код не достежим, так как уязвимость в пакете net/http клиента, а portainer реализует только логику сервера</t>
+    <t xml:space="preserve">Код не достижим, так как уязвимость в пакете net/http клиента, а portainer реализует только логику сервера</t>
   </si>
   <si>
     <t xml:space="preserve">stdlib@v1.23.2</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">- нарушение политики сертификатов  с URI, имеющим адрес IPv6 с идентификатором зоны</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвимость присутвует, хотя являеться довольно случайной, и может привести к наршению политики сертификатов</t>
+    <t xml:space="preserve">Уязвимость присутствует, хотя является довольно случайной, и может привести к нарушению политики сертификатов</t>
   </si>
   <si>
     <t xml:space="preserve">- не использовать сертификаты с URI, имеющим адрес IPv6 с идентификатором зоны
@@ -271,7 +271,7 @@
     <t xml:space="preserve">CVE-2025-22866</t>
   </si>
   <si>
-    <t xml:space="preserve">Код не достежим, так как используеться внутри crypto/internal/nistec и связан с эллептическими кривыми, которые не имеют отношения к portainer.</t>
+    <t xml:space="preserve">Код не достижим, так как используется внутри crypto/internal/nistec и связан с эллиптическими кривыми, которые не имеют отношения к portainer.</t>
   </si>
   <si>
     <t xml:space="preserve">CVE-2025-22871</t>
@@ -280,12 +280,12 @@
     <t xml:space="preserve">- возможна атака HTTP request smuggling</t>
   </si>
   <si>
-    <t xml:space="preserve">Уязвимость присутвует в обработке  конца строк в пакете HTTP, что может привести к скрытым запросам.</t>
+    <t xml:space="preserve">Уязвимость присутствует в обработке  конца строк в пакете HTTP, что может привести к скрытым запросам.</t>
   </si>
   <si>
     <t xml:space="preserve">- Обновить до версии 1.23.8, 1.24.2;
 - Спрятать интерфейс portainer за другим прокси, например nginx
-- Так как portainer это прокси между web-интерфесом и API docker, то нивкоем случае нельяз позволять прямого транслирование HTTP запросов в систему, без тчательной обработки.</t>
+- Так как portainer это прокси между web-интерфейсом и API docker, то нив коем случае нельзя позволять прямого транслирование HTTP запросов в систему, без тщательной обработки.</t>
   </si>
   <si>
     <t xml:space="preserve">- Подтянуть испрвления из патча 9dd6af1f ;</t>
@@ -431,7 +431,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,15 +439,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,23 +482,23 @@
   </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="109.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="94.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="109.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -537,16 +537,16 @@
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -559,12 +559,12 @@
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -577,11 +577,11 @@
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="7"/>
@@ -599,16 +599,16 @@
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -621,16 +621,16 @@
       <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -649,14 +649,14 @@
       <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -672,17 +672,17 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -695,10 +695,10 @@
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -721,16 +721,16 @@
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -743,12 +743,12 @@
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -761,16 +761,16 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -783,12 +783,12 @@
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
@@ -801,16 +801,16 @@
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -823,12 +823,12 @@
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -841,12 +841,12 @@
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -859,16 +859,16 @@
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -881,12 +881,12 @@
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -899,12 +899,12 @@
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -917,16 +917,16 @@
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -939,12 +939,12 @@
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -957,12 +957,12 @@
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -975,16 +975,16 @@
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -997,14 +997,14 @@
       <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -1017,12 +1017,12 @@
       <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -1035,16 +1035,16 @@
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
@@ -1057,14 +1057,14 @@
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -1077,12 +1077,12 @@
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
@@ -1095,16 +1095,16 @@
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -1117,12 +1117,12 @@
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -1135,12 +1135,12 @@
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
@@ -1153,12 +1153,12 @@
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -1171,20 +1171,20 @@
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -1197,12 +1197,12 @@
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>60</v>
       </c>
@@ -1215,12 +1215,12 @@
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
@@ -1233,12 +1233,12 @@
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>60</v>
       </c>
@@ -1251,16 +1251,16 @@
       <c r="D37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>60</v>
       </c>
@@ -1273,12 +1273,12 @@
       <c r="D38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>60</v>
       </c>
@@ -1291,12 +1291,12 @@
       <c r="D39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
@@ -1309,12 +1309,12 @@
       <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>60</v>
       </c>
@@ -1327,20 +1327,20 @@
       <c r="D41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>60</v>
       </c>
@@ -1353,14 +1353,14 @@
       <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>60</v>
       </c>
@@ -1373,12 +1373,12 @@
       <c r="D43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -1391,12 +1391,12 @@
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1406,88 +1406,88 @@
       <c r="G45" s="12"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H46" s="13"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H47" s="13"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H48" s="13"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H49" s="13"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="13"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H51" s="13"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H52" s="13"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H53" s="13"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H54" s="13"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H55" s="13"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H56" s="13"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H57" s="13"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H58" s="13"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H59" s="13"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="13"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H61" s="13"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H62" s="13"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H63" s="13"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H64" s="13"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H65" s="13"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H66" s="13"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H67" s="13"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H68" s="13"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H69" s="13"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H70" s="13"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H71" s="13"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H72" s="13"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H73" s="13"/>
     </row>
   </sheetData>
